--- a/1_Result_Tables/6_naive_forecaster_qoq_evaluations_ifoCASTset_naive_qoq/AVERAGE_10_9_qoq_forecast_error_table_first_eval_ifoCASTset_naive_qoq.xlsx
+++ b/1_Result_Tables/6_naive_forecaster_qoq_evaluations_ifoCASTset_naive_qoq/AVERAGE_10_9_qoq_forecast_error_table_first_eval_ifoCASTset_naive_qoq.xlsx
@@ -450,19 +450,19 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>0.1560865643779764</v>
+        <v>0.1440975431801766</v>
       </c>
       <c r="C2">
-        <v>0.3515450347245845</v>
+        <v>0.4700303102126987</v>
       </c>
       <c r="D2">
-        <v>0.2150214299408537</v>
+        <v>0.5258244742912964</v>
       </c>
       <c r="E2">
-        <v>0.4637040326985023</v>
+        <v>0.7251375554274488</v>
       </c>
       <c r="F2">
-        <v>0.446457955381491</v>
+        <v>0.7266482381404259</v>
       </c>
       <c r="G2">
         <v>23</v>
@@ -473,22 +473,22 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>0.03563623385673412</v>
+        <v>0.702818860278537</v>
       </c>
       <c r="C3">
-        <v>0.3763841266634617</v>
+        <v>0.8472691904027576</v>
       </c>
       <c r="D3">
-        <v>0.258718923892501</v>
+        <v>4.825304880736022</v>
       </c>
       <c r="E3">
-        <v>0.5086442016699895</v>
+        <v>2.196657661251753</v>
       </c>
       <c r="F3">
-        <v>0.5193346301731255</v>
+        <v>2.127963838963247</v>
       </c>
       <c r="G3">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -496,22 +496,22 @@
         <v>8</v>
       </c>
       <c r="B4">
-        <v>0.1674435058222006</v>
+        <v>0.2815506150436938</v>
       </c>
       <c r="C4">
-        <v>0.325651010243966</v>
+        <v>1.240068335160717</v>
       </c>
       <c r="D4">
-        <v>0.1893439557694782</v>
+        <v>7.820836076261407</v>
       </c>
       <c r="E4">
-        <v>0.4351367092874125</v>
+        <v>2.796575776956778</v>
       </c>
       <c r="F4">
-        <v>0.4115482469089393</v>
+        <v>2.844899762820286</v>
       </c>
       <c r="G4">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -519,22 +519,22 @@
         <v>9</v>
       </c>
       <c r="B5">
-        <v>0.09420853156004859</v>
+        <v>0.3158381654092163</v>
       </c>
       <c r="C5">
-        <v>0.3793173975961993</v>
+        <v>1.158822516538064</v>
       </c>
       <c r="D5">
-        <v>0.1861955740678007</v>
+        <v>7.724181108196982</v>
       </c>
       <c r="E5">
-        <v>0.4315038517415583</v>
+        <v>2.779241102926657</v>
       </c>
       <c r="F5">
-        <v>0.4320335350642416</v>
+        <v>2.823294572221369</v>
       </c>
       <c r="G5">
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -542,22 +542,22 @@
         <v>10</v>
       </c>
       <c r="B6">
-        <v>0.1376554976156691</v>
+        <v>0.3679265667964129</v>
       </c>
       <c r="C6">
-        <v>0.3070384954770793</v>
+        <v>1.261171996547169</v>
       </c>
       <c r="D6">
-        <v>0.1917667010867467</v>
+        <v>7.880840995669849</v>
       </c>
       <c r="E6">
-        <v>0.4379117503410324</v>
+        <v>2.807283561678415</v>
       </c>
       <c r="F6">
-        <v>0.4271049595302239</v>
+        <v>2.8456173148262</v>
       </c>
       <c r="G6">
-        <v>19</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -565,22 +565,22 @@
         <v>11</v>
       </c>
       <c r="B7">
-        <v>0.08704673532814769</v>
+        <v>0.3339394964461404</v>
       </c>
       <c r="C7">
-        <v>0.3331907123056521</v>
+        <v>1.329628849026482</v>
       </c>
       <c r="D7">
-        <v>0.1661864209314917</v>
+        <v>8.057429588549642</v>
       </c>
       <c r="E7">
-        <v>0.4076596876458251</v>
+        <v>2.838561182808932</v>
       </c>
       <c r="F7">
-        <v>0.4098039102391214</v>
+        <v>2.882202614392551</v>
       </c>
       <c r="G7">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -588,22 +588,22 @@
         <v>12</v>
       </c>
       <c r="B8">
-        <v>0.1098414975704748</v>
+        <v>0.2421922022797161</v>
       </c>
       <c r="C8">
-        <v>0.3502453509676531</v>
+        <v>1.326115933640845</v>
       </c>
       <c r="D8">
-        <v>0.1720447973870636</v>
+        <v>8.153426962725963</v>
       </c>
       <c r="E8">
-        <v>0.4147828315963229</v>
+        <v>2.85542062798565</v>
       </c>
       <c r="F8">
-        <v>0.4122843320736888</v>
+        <v>2.909074420883571</v>
       </c>
       <c r="G8">
-        <v>17</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -611,22 +611,22 @@
         <v>13</v>
       </c>
       <c r="B9">
-        <v>0.05668700279470316</v>
+        <v>0.2908000157509625</v>
       </c>
       <c r="C9">
-        <v>0.2858025182184197</v>
+        <v>1.361567814352823</v>
       </c>
       <c r="D9">
-        <v>0.1236286644567146</v>
+        <v>8.088431141923708</v>
       </c>
       <c r="E9">
-        <v>0.3516086808608608</v>
+        <v>2.844016726730648</v>
       </c>
       <c r="F9">
-        <v>0.3583893572391054</v>
+        <v>2.892694004914857</v>
       </c>
       <c r="G9">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -634,22 +634,22 @@
         <v>14</v>
       </c>
       <c r="B10">
-        <v>0.07538670723940877</v>
+        <v>0.2584427042972859</v>
       </c>
       <c r="C10">
-        <v>0.3297448490107852</v>
+        <v>1.344876645801738</v>
       </c>
       <c r="D10">
-        <v>0.1573486447537635</v>
+        <v>8.092074104027965</v>
       </c>
       <c r="E10">
-        <v>0.3966719611388779</v>
+        <v>2.844657115370492</v>
       </c>
       <c r="F10">
-        <v>0.4031113225259288</v>
+        <v>2.896561236035992</v>
       </c>
       <c r="G10">
-        <v>15</v>
+        <v>23</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -657,22 +657,22 @@
         <v>15</v>
       </c>
       <c r="B11">
-        <v>0.005943527321275942</v>
+        <v>0.1521280651501415</v>
       </c>
       <c r="C11">
-        <v>0.2990806196507683</v>
+        <v>1.264221546682911</v>
       </c>
       <c r="D11">
-        <v>0.1332127342271929</v>
+        <v>7.809337215816921</v>
       </c>
       <c r="E11">
-        <v>0.3649831971847374</v>
+        <v>2.794519138566942</v>
       </c>
       <c r="F11">
-        <v>0.3787107402290077</v>
+        <v>2.853088184558203</v>
       </c>
       <c r="G11">
-        <v>14</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/1_Result_Tables/6_naive_forecaster_qoq_evaluations_ifoCASTset_naive_qoq/AVERAGE_10_9_qoq_forecast_error_table_first_eval_ifoCASTset_naive_qoq.xlsx
+++ b/1_Result_Tables/6_naive_forecaster_qoq_evaluations_ifoCASTset_naive_qoq/AVERAGE_10_9_qoq_forecast_error_table_first_eval_ifoCASTset_naive_qoq.xlsx
@@ -450,19 +450,19 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>0.1440975431801766</v>
+        <v>0.1560865643779764</v>
       </c>
       <c r="C2">
-        <v>0.4700303102126987</v>
+        <v>0.3515450347245845</v>
       </c>
       <c r="D2">
-        <v>0.5258244742912964</v>
+        <v>0.2150214299408537</v>
       </c>
       <c r="E2">
-        <v>0.7251375554274488</v>
+        <v>0.4637040326985023</v>
       </c>
       <c r="F2">
-        <v>0.7266482381404259</v>
+        <v>0.446457955381491</v>
       </c>
       <c r="G2">
         <v>23</v>
@@ -473,19 +473,19 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>0.702818860278537</v>
+        <v>0.1440975431801766</v>
       </c>
       <c r="C3">
-        <v>0.8472691904027576</v>
+        <v>0.4700303102126987</v>
       </c>
       <c r="D3">
-        <v>4.825304880736022</v>
+        <v>0.5258244742912964</v>
       </c>
       <c r="E3">
-        <v>2.196657661251753</v>
+        <v>0.7251375554274488</v>
       </c>
       <c r="F3">
-        <v>2.127963838963247</v>
+        <v>0.7266482381404259</v>
       </c>
       <c r="G3">
         <v>23</v>
@@ -496,19 +496,19 @@
         <v>8</v>
       </c>
       <c r="B4">
-        <v>0.2815506150436938</v>
+        <v>0.702818860278537</v>
       </c>
       <c r="C4">
-        <v>1.240068335160717</v>
+        <v>0.8472691904027576</v>
       </c>
       <c r="D4">
-        <v>7.820836076261407</v>
+        <v>4.825304880736022</v>
       </c>
       <c r="E4">
-        <v>2.796575776956778</v>
+        <v>2.196657661251753</v>
       </c>
       <c r="F4">
-        <v>2.844899762820286</v>
+        <v>2.127963838963247</v>
       </c>
       <c r="G4">
         <v>23</v>
@@ -519,19 +519,19 @@
         <v>9</v>
       </c>
       <c r="B5">
-        <v>0.3158381654092163</v>
+        <v>0.2815506150436938</v>
       </c>
       <c r="C5">
-        <v>1.158822516538064</v>
+        <v>1.240068335160717</v>
       </c>
       <c r="D5">
-        <v>7.724181108196982</v>
+        <v>7.820836076261407</v>
       </c>
       <c r="E5">
-        <v>2.779241102926657</v>
+        <v>2.796575776956778</v>
       </c>
       <c r="F5">
-        <v>2.823294572221369</v>
+        <v>2.844899762820286</v>
       </c>
       <c r="G5">
         <v>23</v>
@@ -542,19 +542,19 @@
         <v>10</v>
       </c>
       <c r="B6">
-        <v>0.3679265667964129</v>
+        <v>0.3158381654092163</v>
       </c>
       <c r="C6">
-        <v>1.261171996547169</v>
+        <v>1.158822516538064</v>
       </c>
       <c r="D6">
-        <v>7.880840995669849</v>
+        <v>7.724181108196982</v>
       </c>
       <c r="E6">
-        <v>2.807283561678415</v>
+        <v>2.779241102926657</v>
       </c>
       <c r="F6">
-        <v>2.8456173148262</v>
+        <v>2.823294572221369</v>
       </c>
       <c r="G6">
         <v>23</v>
@@ -565,19 +565,19 @@
         <v>11</v>
       </c>
       <c r="B7">
-        <v>0.3339394964461404</v>
+        <v>0.3679265667964129</v>
       </c>
       <c r="C7">
-        <v>1.329628849026482</v>
+        <v>1.261171996547169</v>
       </c>
       <c r="D7">
-        <v>8.057429588549642</v>
+        <v>7.880840995669849</v>
       </c>
       <c r="E7">
-        <v>2.838561182808932</v>
+        <v>2.807283561678415</v>
       </c>
       <c r="F7">
-        <v>2.882202614392551</v>
+        <v>2.8456173148262</v>
       </c>
       <c r="G7">
         <v>23</v>
@@ -588,19 +588,19 @@
         <v>12</v>
       </c>
       <c r="B8">
-        <v>0.2421922022797161</v>
+        <v>0.3339394964461404</v>
       </c>
       <c r="C8">
-        <v>1.326115933640845</v>
+        <v>1.329628849026482</v>
       </c>
       <c r="D8">
-        <v>8.153426962725963</v>
+        <v>8.057429588549642</v>
       </c>
       <c r="E8">
-        <v>2.85542062798565</v>
+        <v>2.838561182808932</v>
       </c>
       <c r="F8">
-        <v>2.909074420883571</v>
+        <v>2.882202614392551</v>
       </c>
       <c r="G8">
         <v>23</v>
@@ -611,19 +611,19 @@
         <v>13</v>
       </c>
       <c r="B9">
-        <v>0.2908000157509625</v>
+        <v>0.2421922022797161</v>
       </c>
       <c r="C9">
-        <v>1.361567814352823</v>
+        <v>1.326115933640845</v>
       </c>
       <c r="D9">
-        <v>8.088431141923708</v>
+        <v>8.153426962725963</v>
       </c>
       <c r="E9">
-        <v>2.844016726730648</v>
+        <v>2.85542062798565</v>
       </c>
       <c r="F9">
-        <v>2.892694004914857</v>
+        <v>2.909074420883571</v>
       </c>
       <c r="G9">
         <v>23</v>
@@ -634,19 +634,19 @@
         <v>14</v>
       </c>
       <c r="B10">
-        <v>0.2584427042972859</v>
+        <v>0.2908000157509625</v>
       </c>
       <c r="C10">
-        <v>1.344876645801738</v>
+        <v>1.361567814352823</v>
       </c>
       <c r="D10">
-        <v>8.092074104027965</v>
+        <v>8.088431141923708</v>
       </c>
       <c r="E10">
-        <v>2.844657115370492</v>
+        <v>2.844016726730648</v>
       </c>
       <c r="F10">
-        <v>2.896561236035992</v>
+        <v>2.892694004914857</v>
       </c>
       <c r="G10">
         <v>23</v>
@@ -657,19 +657,19 @@
         <v>15</v>
       </c>
       <c r="B11">
-        <v>0.1521280651501415</v>
+        <v>0.2584427042972859</v>
       </c>
       <c r="C11">
-        <v>1.264221546682911</v>
+        <v>1.344876645801738</v>
       </c>
       <c r="D11">
-        <v>7.809337215816921</v>
+        <v>8.092074104027965</v>
       </c>
       <c r="E11">
-        <v>2.794519138566942</v>
+        <v>2.844657115370492</v>
       </c>
       <c r="F11">
-        <v>2.853088184558203</v>
+        <v>2.896561236035992</v>
       </c>
       <c r="G11">
         <v>23</v>
